--- a/biology/Zoologie/Cylindraspis_indica/Cylindraspis_indica.xlsx
+++ b/biology/Zoologie/Cylindraspis_indica/Cylindraspis_indica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cylindraspis indica est une espèce éteinte de tortues de la famille des Testudinidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cylindraspis indica est une espèce éteinte de tortues de la famille des Testudinidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce était endémique de La Réunion[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce était endémique de La Réunion.
 Les populations littorales furent décimées dès le XVIIIe siècle. L'espèce est présumée éteinte depuis 1800, date depuis laquelle le dernier spécimen a été observé dans les hauts de Cilaos.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle était longue de 50 à 110 cm, avait de longues pattes, un cou allongé qui soutenait une tête large munie de puissantes mâchoires fortement dentelées. Le mâle était plus grand que la femelle.
 Ces tortues géantes étaient très lentes et faisaient donc l'objet d'une proie facile pour les premiers habitants de l'île et les marins des navires en escale.
